--- a/Assets/Animations/Unlit/AnimationsList.xlsx
+++ b/Assets/Animations/Unlit/AnimationsList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t xml:space="preserve">[Z — forward-backward, X — right-left, R — rotation, ± — mirror reflection] — &lt;description&gt; (number of source animations, number of finite animations)</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">number of finite animations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed animations</t>
   </si>
   <si>
     <t xml:space="preserve">Idle</t>
@@ -287,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -333,6 +336,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top style="medium"/>
       <bottom/>
@@ -354,6 +364,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom style="thin"/>
@@ -396,6 +413,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top style="medium"/>
       <bottom style="medium"/>
@@ -410,6 +434,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
@@ -489,7 +520,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,6 +529,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,64 +545,88 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -663,10 +722,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,601 +745,641 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="A3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="D6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="B7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="B11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16" t="n">
+      <c r="E14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10" t="n">
+      <c r="A16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13" t="n">
         <v>4</v>
       </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10" t="n">
+      <c r="A17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13" t="n">
         <v>4</v>
       </c>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13" t="n">
+      <c r="A18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17" t="n">
         <v>4</v>
       </c>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="A19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="A20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="A21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="A22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="B23" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16" t="n">
-        <v>1</v>
-      </c>
+      <c r="B23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="11" t="n">
         <v>-1</v>
       </c>
-      <c r="B24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="11" t="n">
         <v>-1</v>
       </c>
-      <c r="B25" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B25" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="B26" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="B26" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="16" t="n">
-        <v>2</v>
-      </c>
+      <c r="A27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10" t="n">
+      <c r="A28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="13" t="n">
         <v>4</v>
       </c>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="10" t="n">
+      <c r="A29" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="13" t="n">
         <v>4</v>
       </c>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="13" t="n">
+      <c r="A30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="17" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="18" t="n">
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="24" t="n">
         <f aca="false">SUM(E3:E30)</f>
         <v>34</v>
       </c>
-      <c r="F31" s="19" t="n">
+      <c r="F31" s="25" t="n">
         <f aca="false">SUM(F3:F30)</f>
         <v>63</v>
+      </c>
+      <c r="G31" s="26" t="n">
+        <f aca="false">SUM(G3:G30)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
